--- a/didh/excel/ps2008.xlsx
+++ b/didh/excel/ps2008.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="283">
   <si>
     <t xml:space="preserve">Sous axe </t>
   </si>
@@ -61,15 +61,9 @@
     <t>Le Groupe de travail est convaincu que l’indépendance et l’impartialité du pouvoir judiciaire sont essentielles pour prévenir les disparitions forcées et punir de façon efficace leurs auteurs.</t>
   </si>
   <si>
-    <t xml:space="preserve">justice </t>
-  </si>
-  <si>
     <t>R99</t>
   </si>
   <si>
-    <t>justice</t>
-  </si>
-  <si>
     <t>Le Groupe de travail observe que l’actuelle procédure pénale offre déjà d’importantes garanties contre la détention arbitraire et la disparition forcée dont, notamment, les dispositions relatives à la garde à vue, l’obligation pour le procureur d’informer la famille du détenu, la compétence reconnue au procureur et au juge d’instruction pour visiter des centres de détention et vérifier la légalité et les conditions de détention, et l’obligation de tenir des registres officiels sur les détentions.Toutefois, le Groupe de travail a reçu des allégations selon lesquelles ces dispositions n’étaient pas toujours appliquées. La mise en œuvre effective de ces garanties est donc prioritaire.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>Le Groupe de travail attend avec impatience la ratification par le Maroc de la Convention internationale pour la protection de toutes les personnes contre les disparitions forcées et sa reconnaissance de la compétence du Comité au titre des articles 31 et 32 de la Convention, de même que la ratification d’autres instruments internationaux qui ont une incidence sur la disparition forcée.</t>
   </si>
   <si>
-    <t xml:space="preserve">Affaires Etrangères </t>
-  </si>
-  <si>
     <t>R103</t>
   </si>
   <si>
@@ -104,10 +95,6 @@
   </si>
   <si>
     <t>R98P1P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justice ;Parlement
-</t>
   </si>
   <si>
     <t xml:space="preserve">Le Groupe de travail espère que le processus législatif devant aboutir à cet important objectif sera mené à bien, dans les plus brefs délais. Cependant, la loi concernée ne devra pas se restreindre à inclure une définition du crime, mais devra également:
@@ -163,10 +150,6 @@
     <t>La loi doit établir la compétence des juridictions pénales civiles (et non militaires) pour traduire tout auteur présumé de disparition forcée, sur une base territoriale, personnelle mais aussi universelle (art. 14 de la Déclaration).</t>
   </si>
   <si>
-    <t xml:space="preserve">justice;Parlement
-</t>
-  </si>
-  <si>
     <t>R108</t>
   </si>
   <si>
@@ -193,17 +176,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">DGAPR; Intérieur;justice;DGSN
-</t>
-  </si>
-  <si>
-    <t>CNDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justice 
-</t>
-  </si>
-  <si>
     <t>R106P1</t>
   </si>
   <si>
@@ -246,10 +218,6 @@
     <t>Rapporteur spécial sur le droit à l’éducation</t>
   </si>
   <si>
-    <t xml:space="preserve">affaires étrangères;Parlement
-</t>
-  </si>
-  <si>
     <t>R74P8</t>
   </si>
   <si>
@@ -262,23 +230,12 @@
     <t>Promouvoir une modification de la législation en vigueur devant permettre l’inscription des enfants − filles et garçons − dans le système éducatif même sans le consentement de leur père ou mère</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement social et de solidarité;Education nationale; Justice;Parlement
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education nationale;Parlement
-</t>
-  </si>
-  <si>
     <t>R73P8</t>
   </si>
   <si>
     <t>Renforcer la perspective du genre dans le système éducatif, ainsi que le principe d’égalité entre hommes et femmes, pour en finir avec la conception actuelle qui se borne à rechercher la parité entre filles et garçons en matière d’accès à l’éducation et à éliminer les stéréotypes sexistes dans les livres de textes.</t>
   </si>
   <si>
-    <t>Développement social et de solidarité;Education nationale</t>
-  </si>
-  <si>
     <t>R73P2</t>
   </si>
   <si>
@@ -313,10 +270,6 @@
   </si>
   <si>
     <t>Mettre au point des indicateurs désagrégés par sexe, condition sociale, origine ethnique et autres variables, sur l’abandon et l’absentéisme scolaires, en vue non seulement de réduire ces phénomènes mais d’amener tous les élèves au terme de leur scolarité, sans considération de sexe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education nationale;Ministère du développement social, de la femme, de la famille et de la solidarité
-</t>
   </si>
   <si>
     <t xml:space="preserve">Mettre en place un système de centres et de refuges pour filles des zones
@@ -324,19 +277,10 @@
 </t>
   </si>
   <si>
-    <t>Ministère du développement social, de la femme, de la famille et de la solidarité;Emlpoi</t>
-  </si>
-  <si>
-    <t>Ministère du développement social, de la femme, de la famille et de la solidarité</t>
-  </si>
-  <si>
     <t>R74P12</t>
   </si>
   <si>
     <t>Affecter des crédits à la fourniture ou au versement d’allocations pour l’achat de fauteuils roulants, de prothèses et autres moyens permettant à des enfants et adolescents− filles et garçons − démunis d’aller à l’école</t>
-  </si>
-  <si>
-    <t>Education nationale;- enseignement supérieur</t>
   </si>
   <si>
     <t>R73P7</t>
@@ -359,42 +303,12 @@
 </t>
   </si>
   <si>
-    <t>éducation nationale</t>
-  </si>
-  <si>
-    <t>Médiateur</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>éducation nationale</t>
-    </r>
-  </si>
-  <si>
     <t>R72</t>
   </si>
   <si>
     <t>Ancrer fermement les politiques publiques dans les droits de l’homme en vue de remédier aux asymétries et disparités sociales en matière de jouissance et d’exercice des droits par des actions positives adaptées aux besoins des groupes sociaux les plus défavorisés.</t>
   </si>
   <si>
-    <t>Droit de l'homme</t>
-  </si>
-  <si>
     <t>Rapporteuse spéciale sur les droits de l’homme des migrants</t>
   </si>
   <si>
@@ -404,16 +318,9 @@
     <t>adhérer aux deux Protocoles additionnels à la Convention des Nations Unies contre la criminalité transnationale organisée</t>
   </si>
   <si>
-    <t xml:space="preserve">Affaires étrangères ;justice 
-</t>
-  </si>
-  <si>
     <t>R88</t>
   </si>
   <si>
-    <t xml:space="preserve">Affaires étrangères </t>
-  </si>
-  <si>
     <t>La Rapporteuse spéciale juge essentielle la mise à jour de la législation nationale pour mieux gérer le problème de la migration irrégulière, qui comprend l’émigration des Marocains vers l’Europe et l’immigration de Subsahariens et ressortissants d’autres pays qui transitent par le Maroc vers l’Europe et qui souvent restent sur le territoire marocain illégalement</t>
   </si>
   <si>
@@ -423,14 +330,6 @@
     <t>La création de centres de détention administrative envisagée dans le dispositif de la loi no 02-03 peut avoir des aspects positifs et négatifs. La création de ces centres doit être accompagnée de ressources financières adéquates pour leur établissement et leur gestion,  la formation du personnel, la garantie du respect des normes de vie et de séjour, ainsi que de mesures assurant la résolution rapide des cas individuels afin d’éviter des périodes de détention prolongées ou indéfinies. La Rapporteuse spéciale recommande aussi que ces centres soient conformes aux normes internationales établissant les garanties minimales pour les personnes mises en rétention. Elle rappelle à cet égard ses recommandations contenues dans le rapport E/CN.4/2003/85 et ses additifs et rectificatifs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Intérieur;Affaires étrangères 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur;justice 
-</t>
-  </si>
-  <si>
     <t>R79P1</t>
   </si>
   <si>
@@ -464,43 +363,16 @@
     <t>Faciliter l’accès aux mécanismes de recours pour les migrants par la sensibilisation et des campagnes d’information</t>
   </si>
   <si>
-    <t xml:space="preserve">CNDH;Droits de l’Homme;justice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNDH;Droits de l’Homme;DGAPR
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DGAPR;intérieur;justice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Droits de l’Homme;justice ;développement social et solidarité 
-</t>
-  </si>
-  <si>
-    <t>enseignement supérieur</t>
-  </si>
-  <si>
     <t>R167P7-1 </t>
   </si>
   <si>
     <t>La Rapporteuse spéciale invite instamment le Gouvernement marocain à ratifier la Convention de La Haye sur la protection des enfants et la coopération en matière d'adoption internationale et à l'adopter de toute urgence</t>
   </si>
   <si>
-    <t xml:space="preserve">justice ;affaires Etrangères
-</t>
-  </si>
-  <si>
     <t>R167P5-1</t>
   </si>
   <si>
     <t>Nécessité d’entamer  des réformes tant législatives que politiques s'imposent au moins pour assurer la sécurité des enfants et leur accès à l'enseignement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">éducation nationale;emploi;développement social et solidarité
-</t>
   </si>
   <si>
     <t xml:space="preserve">Il faut examiner attentivement toute la législation, en particulier le droit pénal, pour que les enfants victimes de violences et d'exploitation ne soient pas pénalement responsables.
@@ -512,9 +384,6 @@
     <t>R167P4</t>
   </si>
   <si>
-    <t xml:space="preserve"> justice </t>
-  </si>
-  <si>
     <t>R167P5-2</t>
   </si>
   <si>
@@ -539,12 +408,6 @@
     <t>étudier des solutions réalistes autres que le système d'adoption dit de la kafalah pour les enfants qu'aucun membre de leur famille ne désire accueillir</t>
   </si>
   <si>
-    <t>développement social et solidarité</t>
-  </si>
-  <si>
-    <t>développement social et solidarité;emlpoi;justice</t>
-  </si>
-  <si>
     <t>R167P8</t>
   </si>
   <si>
@@ -563,13 +426,6 @@
     <t>Bien qu'il n'existe pas de données sur la consommation de drogues dures par les enfants, il semble que la pratique qui consiste à renifler de la colle soit courante, en particulier chez les enfants des rues; cette pratique devrait donner lieu à des campagnes de sensibilisation et faire l'objet d'une surveillance</t>
   </si>
   <si>
-    <t>tourisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur;Présidence du ministère public;développement social et solidarité
-</t>
-  </si>
-  <si>
     <t>Réaliser des campagnes pour informer et sensibiliser la police et les autres responsables de l'application des lois quant aux moyens d'aborder efficacement le problème des enfants des rues sans les victimiser davantage</t>
   </si>
   <si>
@@ -579,22 +435,10 @@
     <t>former et sensibiliser à l'écoute des enfants la police et les responsables de l'application des lois de façon à ce qu'ils ne se désintéressent pas d'eux au motif que, s'agissant uniquement de problèmes domestiques, leurs demandes ne relèvent pas de leur compétence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Intérieur;DGSN;développement social et solidarité;CNDH
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur;DGSN;gendarmerie royale;développement social et solidarité;CNDH
-</t>
-  </si>
-  <si>
     <t>R167P3</t>
   </si>
   <si>
     <t>lancer des programmes de sensibilisation afin d'informer le grand public, en particulier les enfants et les parents, des dangers très réels de l'émigration clandestine, que ce soit pendant le voyage ou une fois sur place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">développement social et solidarité;marocaines résident à l’étranger et des affaires e la migration
-</t>
   </si>
   <si>
     <t xml:space="preserve">Rapporteuse spéciale chargée d'étudier la question de la vente d'enfants,
@@ -701,12 +545,6 @@
     <t xml:space="preserve">mettre en place un plan adapté de formation à l’enseignement de l’amazigh à
 l’intention des enseignants, en veillant à allonger à brève échéance la durée de la formation, en particulier pour les enseignants dont l’amazigh n’est pas la langue maternelle
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> éducation nationale;IRCAM</t>
-  </si>
-  <si>
-    <t>enseignement  supérieur;IRCAM</t>
   </si>
   <si>
     <t>R73</t>
@@ -759,46 +597,22 @@
     <t xml:space="preserve">Mettre en place de mesures en faveur des mineurs et des femmes enceintes qui, même s’ils sont candidats potentiels à l’expulsion, étant donné leur statut, ne peuvent être expulsés. </t>
   </si>
   <si>
-    <t xml:space="preserve">Intérieur;Affaires étrangères;Marocains résident à l’étranger;Présidence du ministère public;Gendarmerie royale;DGSN
-</t>
-  </si>
-  <si>
     <t>R81P3</t>
   </si>
   <si>
     <t>fournir une protection et une aide suffisantes et suivre très attentivement la situation des mineurs non accompagnés.</t>
   </si>
   <si>
-    <t xml:space="preserve">développement social et solidarité;Affaires étrangères;Marocains résident à l’étranger;Intérieur
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNDH;Droits de l’Homme;Justice
-</t>
-  </si>
-  <si>
     <t>R78P1</t>
   </si>
   <si>
     <t>prendre des mesures de protection des droits des migrants irréguliers et de formes d’assistance spécifiques pour les migrants malades ou blessés et à prévoir des programmes pour leur réhabilitation physique et psychologique</t>
   </si>
   <si>
-    <t xml:space="preserve">Affaires étrangères;Marocains résident à l’étranger;Santé
- </t>
-  </si>
-  <si>
     <t>R80</t>
   </si>
   <si>
     <t>formuler de mesures claires visant à garantir que, au moment de son interpellation à la frontière ou sur le territoire national, en cas d’entrée ou de séjour irrégulier, un étranger soit toujours informé, au moins oralement et dans une langue qu’il comprend, de la nature et des motifs de la décision de refus d’entrée ou de séjour qu’on envisage de lui opposer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur;DGSN;Gendarmerie royale
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur;Affaires étrangères;Marocains résident à l’étranger;Présidence du ministère public;Gendarmerie royale;DGSN
- </t>
   </si>
   <si>
     <t>veiller à ce que la législation n’autorise pas la détention d’enfants non accompagnés et que la détention d’enfants ne soit autorisée qu’en tant que mesure de dernier ressort et seulement dans l’intérêt supérieur de l’enfant</t>
@@ -838,181 +652,300 @@
     <t>Poursuivre les efforts pour remplir les obligations qui dérivent de la ratification de la Convention relative au statut des réfugiés et de la Convention régissant les aspects propres aux problèmes des réfugiés en Afriquepropres aux problèmes des réfugiés en Afrique.</t>
   </si>
   <si>
-    <t xml:space="preserve">Intérieur;Affaires étrangères;Marocains résident à l’étranger 
+    <t>(ب)ينبغي رصد أماكن تجمع الأطفال عن كثب، من أجل إغاثة الأطفال عند اللزوم ومن أجل ردع كل من تسول له نفسه استغلالهم؛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La création de ces centres de détention administrative envisagée dans le dispositif de la loi no 02 03 doit être accompagnée de ressources financières adéquates pour leur établissement et leur gestion, la formation du personnel, la garantie du respect des normes de vie et de séjour, ainsi que de mesures assurant la résolution rapide des cas individuels afin d’éviter des périodes de détention prolongées ou indéfinies. </t>
+  </si>
+  <si>
+    <t>Les centres de détention administrative envisagée dans le dispositif de la loi no 02 03 doivent être conformes aux normes internationales établissant les garanties minimales pour les personnes mises en rétention</t>
+  </si>
+  <si>
+    <t>R78P2</t>
+  </si>
+  <si>
+    <t>prendre conscience de la présence du phénomène de la prostitution et de l’exploitation des migrantes subsahariennes et à mettre en place des instruments adéquats visant la protection, l’assistance et la réhabilitation des victimes de la traite d’êtres humains.</t>
+  </si>
+  <si>
+    <t>R167P1-2</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>R100P1P2</t>
+  </si>
+  <si>
+    <t>Pour que le CCDH renforce le rôle crucial qu’il joue dans le suivi des activités de l’IER, le Groupe de travail suggère que l’indépendance du CCDH soit renforcée. À cette fin, le Groupe de travail considère qu’aucun membre du CCDH ne devrait être choisi par le Roi et qu’aucun ministère relevant du pouvoir exécutif du Gouvernement (par exemple le Ministère de la justice) ne devrait participer aux sessions du CCDH, pas même en tant que simple observateur ou avec un mandat consultatif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>R74P11-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signer et ratifier la Convention relative aux droits des personnes handicapées </t>
+  </si>
+  <si>
+    <t>R74P11-2</t>
+  </si>
+  <si>
+    <t>signer et ratifier le protocole facultatif à la Convention relative aux droits des personnes handicapées , et d’adopter un plan de transition vers un système éducatif inclusif;</t>
+  </si>
+  <si>
+    <t>R74P11-3</t>
+  </si>
+  <si>
+    <t>adopter un plan de transition vers un système éducatif inclusif;</t>
+  </si>
+  <si>
+    <t>R74P10-1</t>
+  </si>
+  <si>
+    <t>R74P10-2</t>
+  </si>
+  <si>
+    <t>R82P1</t>
+  </si>
+  <si>
+    <t>R82P2</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>3;6</t>
+  </si>
+  <si>
+    <t>9;32</t>
+  </si>
+  <si>
+    <t>12;14</t>
+  </si>
+  <si>
+    <t>4;6</t>
+  </si>
+  <si>
+    <t>14;32</t>
+  </si>
+  <si>
+    <t>4;7</t>
+  </si>
+  <si>
+    <t>14;36</t>
+  </si>
+  <si>
+    <t>Faire des droits de l’homme une réalité dans la vie scolaire et un des principes fondamentaux de l’enseignement − comme le préconise la Charte nationale d’éducation et de formation − et en finir avec les châtiments corporels à l’école</t>
+  </si>
+  <si>
+    <t>14;32;30</t>
+  </si>
+  <si>
+    <t>12;14;32</t>
+  </si>
+  <si>
+    <t>12;14;33</t>
+  </si>
+  <si>
+    <t>3;4;6</t>
+  </si>
+  <si>
+    <t>9;12;14;32</t>
+  </si>
+  <si>
+    <t>30;32;34</t>
+  </si>
+  <si>
+    <t>6;8</t>
+  </si>
+  <si>
+    <t>34;32;9</t>
+  </si>
+  <si>
+    <t>6;3</t>
+  </si>
+  <si>
+    <t>32;34</t>
+  </si>
+  <si>
+    <t>6;2;3</t>
+  </si>
+  <si>
+    <t>34;7;10</t>
+  </si>
+  <si>
+    <t>4;3;6</t>
+  </si>
+  <si>
+    <t>14;9;15;32</t>
+  </si>
+  <si>
+    <t>2;6</t>
+  </si>
+  <si>
+    <t>5;32</t>
+  </si>
+  <si>
+    <t>R73P6-2</t>
+  </si>
+  <si>
+    <t>R73P6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28;32
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Intérieur;Affaires étrangères;Marocains résident à l’étranger;Gendarmerie royale;DGSN
+    <t xml:space="preserve">28
 </t>
   </si>
   <si>
-    <t>Intérieur</t>
-  </si>
-  <si>
-    <t>(ب)ينبغي رصد أماكن تجمع الأطفال عن كثب، من أجل إغاثة الأطفال عند اللزوم ومن أجل ردع كل من تسول له نفسه استغلالهم؛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La création de ces centres de détention administrative envisagée dans le dispositif de la loi no 02 03 doit être accompagnée de ressources financières adéquates pour leur établissement et leur gestion, la formation du personnel, la garantie du respect des normes de vie et de séjour, ainsi que de mesures assurant la résolution rapide des cas individuels afin d’éviter des périodes de détention prolongées ou indéfinies. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intérieur
+    <t xml:space="preserve">3;26;28;14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;32
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40;32
+</t>
+  </si>
+  <si>
+    <t>40;36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12;40; 28;32
+</t>
+  </si>
+  <si>
+    <t>12;40</t>
+  </si>
+  <si>
+    <t>42;36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40;12
+</t>
+  </si>
+  <si>
+    <t>12;18</t>
+  </si>
+  <si>
+    <t>40;42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;15;3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;26;28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;3;29;22;14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;3;29 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;14;22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;3 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;15;28 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4;15;28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15;28 ;12 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12;3;29;26
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26
  </t>
   </si>
   <si>
-    <t>Les centres de détention administrative envisagée dans le dispositif de la loi no 02 03 doivent être conformes aux normes internationales établissant les garanties minimales pour les personnes mises en rétention</t>
-  </si>
-  <si>
-    <t>R78P2</t>
-  </si>
-  <si>
-    <t>prendre conscience de la présence du phénomène de la prostitution et de l’exploitation des migrantes subsahariennes et à mettre en place des instruments adéquats visant la protection, l’assistance et la réhabilitation des victimes de la traite d’êtres humains.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justice;Affaires étrangères;Marocains résident à l’étranger;Présidence du ministère public
+    <t xml:space="preserve">26;3;29;6;22;14
 </t>
   </si>
   <si>
-    <t>R167P1-2</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>R100P1P2</t>
-  </si>
-  <si>
-    <t>Pour que le CCDH renforce le rôle crucial qu’il joue dans le suivi des activités de l’IER, le Groupe de travail suggère que l’indépendance du CCDH soit renforcée. À cette fin, le Groupe de travail considère qu’aucun membre du CCDH ne devrait être choisi par le Roi et qu’aucun ministère relevant du pouvoir exécutif du Gouvernement (par exemple le Ministère de la justice) ne devrait participer aux sessions du CCDH, pas même en tant que simple observateur ou avec un mandat consultatif.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>R74P11-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signer et ratifier la Convention relative aux droits des personnes handicapées </t>
-  </si>
-  <si>
-    <t>R74P11-2</t>
-  </si>
-  <si>
-    <t>signer et ratifier le protocole facultatif à la Convention relative aux droits des personnes handicapées , et d’adopter un plan de transition vers un système éducatif inclusif;</t>
-  </si>
-  <si>
-    <t>R74P11-3</t>
-  </si>
-  <si>
-    <t>adopter un plan de transition vers un système éducatif inclusif;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> éducation nationale
+    <t xml:space="preserve">26;3;29;6;22;14
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;6;12
 </t>
   </si>
   <si>
-    <t>R74P10-1</t>
-  </si>
-  <si>
-    <t>R74P10-2</t>
-  </si>
-  <si>
-    <t>R82P1</t>
-  </si>
-  <si>
-    <t>R82P2</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>3;6</t>
-  </si>
-  <si>
-    <t>9;32</t>
-  </si>
-  <si>
-    <t>12;14</t>
-  </si>
-  <si>
-    <t>4;6</t>
-  </si>
-  <si>
-    <t>14;32</t>
-  </si>
-  <si>
-    <t>4;7</t>
-  </si>
-  <si>
-    <t>14;36</t>
-  </si>
-  <si>
-    <t>Faire des droits de l’homme une réalité dans la vie scolaire et un des principes fondamentaux de l’enseignement − comme le préconise la Charte nationale d’éducation et de formation − et en finir avec les châtiments corporels à l’école</t>
-  </si>
-  <si>
-    <t>14;32;30</t>
-  </si>
-  <si>
-    <t>12;14;32</t>
-  </si>
-  <si>
-    <t>12;14;33</t>
-  </si>
-  <si>
-    <t>3;4;6</t>
-  </si>
-  <si>
-    <t>9;12;14;32</t>
-  </si>
-  <si>
-    <t>30;32;34</t>
-  </si>
-  <si>
-    <t>6;8</t>
-  </si>
-  <si>
-    <t>34;32;9</t>
-  </si>
-  <si>
-    <t>6;3</t>
-  </si>
-  <si>
-    <t>32;34</t>
-  </si>
-  <si>
-    <t>6;2;3</t>
-  </si>
-  <si>
-    <t>34;7;10</t>
-  </si>
-  <si>
-    <t>4;3;6</t>
-  </si>
-  <si>
-    <t>14;9;15;32</t>
-  </si>
-  <si>
-    <t>2;6</t>
-  </si>
-  <si>
-    <t>5;32</t>
-  </si>
-  <si>
-    <t>R73P6-2</t>
-  </si>
-  <si>
-    <t>R73P6-1</t>
+    <t xml:space="preserve">28;3;29;6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3;29;33
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40;18;12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28;3
+</t>
+  </si>
+  <si>
+    <t>12;18;28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26;14;12;4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26;14;22;12;4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12;29
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,12 +989,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Sakkal Majalla"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1334,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1417,7 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1429,23 +1356,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1474,11 +1395,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1495,15 +1413,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1516,7 +1425,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,12 +1440,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1546,31 +1449,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1588,37 +1491,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,25 +1521,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1656,7 +1550,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1674,13 +1568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1689,26 +1583,75 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,7 +1713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1802,10 +1745,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,7 +1779,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2013,27 +1954,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="75.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -2062,7 +2003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="60.75" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -2078,17 +2019,17 @@
       <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>256</v>
+      <c r="F2" s="116">
+        <v>28</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="155.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="155.25" customHeight="1" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2099,22 +2040,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>255</v>
+      <c r="F3" s="117">
+        <v>28</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="79.5" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -2125,22 +2066,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>255</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="116">
+        <v>3</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="60.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -2151,22 +2092,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>257</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="118">
+        <v>3</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="60.75" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2177,22 +2118,22 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>257</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="118">
+        <v>3</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60.75" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -2203,22 +2144,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="93" t="s">
-        <v>256</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="118">
+        <v>3</v>
+      </c>
+      <c r="I7" s="82" t="s">
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="111" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -2229,19 +2170,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="126.75" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2251,20 +2192,20 @@
       <c r="C9" s="16">
         <v>9</v>
       </c>
-      <c r="D9" s="96" t="s">
-        <v>26</v>
+      <c r="D9" s="85" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="221.25" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2274,20 +2215,20 @@
       <c r="C10" s="16">
         <v>9</v>
       </c>
-      <c r="D10" s="96" t="s">
-        <v>258</v>
+      <c r="D10" s="85" t="s">
+        <v>206</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60.75" thickBot="1">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2298,19 +2239,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60.75" thickBot="1">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -2321,19 +2262,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="63.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -2344,19 +2285,19 @@
         <v>10</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="63.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2367,19 +2308,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="63.75" thickBot="1">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2390,19 +2331,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60.75" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2413,19 +2354,19 @@
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I16" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60.75" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
@@ -2436,19 +2377,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="63.75" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
@@ -2459,19 +2400,19 @@
         <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="I18" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63">
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
@@ -2482,19 +2423,19 @@
         <v>22</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F19" s="15">
+        <v>4</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2505,19 +2446,19 @@
         <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F20" s="15">
+        <v>4</v>
+      </c>
+      <c r="I20" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60.75" thickBot="1">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -2528,19 +2469,19 @@
         <v>26</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F21" s="116">
+        <v>4</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="78" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
@@ -2551,19 +2492,19 @@
         <v>26</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="F22" s="117">
+        <v>4</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="39.75" customHeight="1" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2573,20 +2514,20 @@
       <c r="C23" s="16">
         <v>26</v>
       </c>
-      <c r="D23" s="110" t="s">
-        <v>58</v>
+      <c r="D23" s="99" t="s">
+        <v>50</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F23" s="117">
+        <v>4</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
@@ -2597,19 +2538,19 @@
         <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F24" s="116">
+        <v>4</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63.75" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -2620,19 +2561,19 @@
         <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F25" s="116">
+        <v>4</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="63.75" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>9</v>
       </c>
@@ -2640,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="111" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F26" s="116">
+        <v>4</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="111" thickBot="1">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -2660,16 +2601,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I27" s="95" t="s">
-        <v>257</v>
+        <v>59</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="116">
+        <v>4</v>
+      </c>
+      <c r="I27" s="84" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2679,28 +2620,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="59" customWidth="1"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" style="15" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2724,333 +2665,333 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="100">
+    <row r="2" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A2" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="89">
         <v>2</v>
       </c>
-      <c r="C2" s="100">
+      <c r="C2" s="89">
         <v>5</v>
       </c>
-      <c r="D2" s="101" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="93" t="s">
-        <v>256</v>
+      <c r="D2" s="90" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="82" t="s">
+        <v>204</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="100">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="89">
         <v>2</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="89">
         <v>5</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="95" t="s">
-        <v>257</v>
+      <c r="D3" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>68</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" customHeight="1">
+      <c r="A4" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>255</v>
+        <v>221</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
-        <v>68</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A5" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="94" t="s">
-        <v>255</v>
+        <v>232</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
-        <v>68</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="78.75" customHeight="1" thickBot="1">
+      <c r="A6" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>255</v>
+        <v>222</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>68</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A7" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B7" s="16">
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="106" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A8" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="I8" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A9" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A10" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A11" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
-        <v>68</v>
+      <c r="F11" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="80.25" customHeight="1" thickBot="1">
+      <c r="A12" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>68</v>
+        <v>224</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="84.75" customHeight="1">
+      <c r="A13" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>68</v>
+        <v>224</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A14" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>68</v>
+        <v>224</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>257</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A15" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="16">
         <v>4</v>
@@ -3058,22 +2999,22 @@
       <c r="C15" s="16">
         <v>14</v>
       </c>
-      <c r="D15" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="95" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
-        <v>68</v>
+      <c r="D15" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="123">
+        <v>40</v>
+      </c>
+      <c r="I15" s="84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A16" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B16" s="16">
         <v>4</v>
@@ -3081,22 +3022,22 @@
       <c r="C16" s="16">
         <v>14</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>210</v>
+      <c r="D16" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
-        <v>68</v>
+        <v>170</v>
+      </c>
+      <c r="F16" s="112">
+        <v>40</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A17" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B17" s="16">
         <v>4</v>
@@ -3104,45 +3045,45 @@
       <c r="C17" s="16">
         <v>14</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>212</v>
+      <c r="D17" s="57" t="s">
+        <v>171</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>68</v>
+        <v>172</v>
+      </c>
+      <c r="F17" s="112">
+        <v>40</v>
+      </c>
+      <c r="I17" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A18" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>214</v>
+        <v>226</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>173</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
-        <v>68</v>
+        <v>174</v>
+      </c>
+      <c r="F18" s="112">
+        <v>40</v>
+      </c>
+      <c r="I18" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="84.75" customHeight="1" thickBot="1">
+      <c r="A19" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B19" s="16">
         <v>4</v>
@@ -3150,22 +3091,22 @@
       <c r="C19" s="16">
         <v>14</v>
       </c>
-      <c r="D19" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>68</v>
+      <c r="D19" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="112">
+        <v>40</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45.75" thickBot="1">
+      <c r="A20" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="16">
         <v>6</v>
@@ -3173,22 +3114,22 @@
       <c r="C20" s="16">
         <v>32</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
-        <v>68</v>
+      <c r="D20" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45.75" thickBot="1">
+      <c r="A21" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="16">
         <v>6</v>
@@ -3196,22 +3137,22 @@
       <c r="C21" s="16">
         <v>32</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
-        <v>68</v>
+      <c r="D21" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="15">
+        <v>12</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60.75" thickBot="1">
+      <c r="A22" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="16">
         <v>6</v>
@@ -3219,22 +3160,22 @@
       <c r="C22" s="16">
         <v>32</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
-        <v>68</v>
+      <c r="D22" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45.75" thickBot="1">
+      <c r="A23" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B23" s="16">
         <v>6</v>
@@ -3242,120 +3183,120 @@
       <c r="C23" s="16">
         <v>33</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="108" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="83">
+      <c r="D23" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="15">
+        <v>12</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="97" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A24" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="75">
         <v>7</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="75">
         <v>36</v>
       </c>
-      <c r="D24" s="126" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="111" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="109" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>68</v>
+      <c r="D24" s="115" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="122" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75.75" thickBot="1">
+      <c r="A25" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="16">
         <v>8</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
-        <v>68</v>
+      <c r="D25" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="26">
+        <v>40</v>
+      </c>
+      <c r="I25" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="60.75" thickBot="1">
+      <c r="A26" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B26" s="16">
         <v>8</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
-        <v>68</v>
+      <c r="D26" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="27">
+        <v>30</v>
+      </c>
+      <c r="I26" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A27" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="16">
         <v>8</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
-        <v>68</v>
+      <c r="D27" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="27">
+        <v>40</v>
+      </c>
+      <c r="I27" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="60.75" thickBot="1">
+      <c r="A28" s="59" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="16">
         <v>9</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I28" s="94" t="s">
-        <v>255</v>
+      <c r="D28" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="15">
+        <v>15</v>
+      </c>
+      <c r="I28" s="83" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3365,27 +3306,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" activeCellId="1" sqref="A15:XFD15 A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="11" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="16" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3410,13 +3351,13 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="48" thickBot="1">
       <c r="A2" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B2" s="14">
         <v>3</v>
@@ -3425,21 +3366,21 @@
         <v>10</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45.75" thickBot="1">
       <c r="A3" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
@@ -3448,24 +3389,24 @@
         <v>5</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>255</v>
+        <v>92</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="78.599999999999994" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B4" s="14">
         <v>7</v>
@@ -3473,42 +3414,42 @@
       <c r="C4" s="16">
         <v>36</v>
       </c>
-      <c r="D4" s="113" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="122" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48" thickBot="1">
       <c r="A5" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B5" s="14">
         <v>8</v>
       </c>
-      <c r="D5" s="115" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D5" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48" thickBot="1">
       <c r="A6" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B6" s="14">
         <v>7</v>
@@ -3516,22 +3457,22 @@
       <c r="C6" s="16">
         <v>36</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48" thickBot="1">
       <c r="A7" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B7" s="14">
         <v>7</v>
@@ -3539,42 +3480,42 @@
       <c r="C7" s="16">
         <v>36</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="87.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B8" s="14">
         <v>8</v>
       </c>
-      <c r="D8" s="120" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="I8" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="131" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B9" s="14">
         <v>7</v>
@@ -3582,22 +3523,22 @@
       <c r="C9" s="16">
         <v>37</v>
       </c>
-      <c r="D9" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="89.25" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B10" s="14">
         <v>7</v>
@@ -3605,22 +3546,22 @@
       <c r="C10" s="16">
         <v>36</v>
       </c>
-      <c r="D10" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="89.25" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B11" s="14">
         <v>6</v>
@@ -3628,91 +3569,91 @@
       <c r="C11" s="16">
         <v>34</v>
       </c>
-      <c r="D11" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="131" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
       <c r="A12" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B12" s="14">
         <v>6</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="131" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
       <c r="A13" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
       <c r="A14" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C14" s="16">
         <v>34</v>
       </c>
-      <c r="D14" s="92" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="131" t="s">
+        <v>271</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
       <c r="A15" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B15" s="14">
         <v>3</v>
@@ -3720,45 +3661,45 @@
       <c r="C15" s="16">
         <v>9</v>
       </c>
-      <c r="D15" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="123" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I15" s="94" t="s">
-        <v>255</v>
+      <c r="D15" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="89.25" customHeight="1" thickBot="1">
       <c r="A16" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B16" s="14">
         <v>9</v>
       </c>
-      <c r="D16" s="117" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="79" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="132">
+        <v>3</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="50.25" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B17" s="14">
         <v>7</v>
@@ -3766,108 +3707,108 @@
       <c r="C17" s="16">
         <v>36</v>
       </c>
-      <c r="D17" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="48" thickBot="1">
       <c r="A18" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C18" s="16">
         <v>34</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="131" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="I18" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="48" thickBot="1">
       <c r="A19" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60.75" thickBot="1">
       <c r="A20" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B20" s="14">
         <v>9</v>
       </c>
-      <c r="D20" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="F20" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="I20" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>264</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60.75" thickBot="1">
       <c r="A21" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B21" s="14">
         <v>9</v>
       </c>
-      <c r="D21" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="78" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="I21" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="132">
+        <v>26</v>
+      </c>
+      <c r="I21" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="63.75" thickBot="1">
       <c r="A22" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B22" s="14">
         <v>6</v>
@@ -3875,22 +3816,22 @@
       <c r="C22" s="16">
         <v>35</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="F22" s="67" t="s">
-        <v>253</v>
-      </c>
-      <c r="I22" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45.75" thickBot="1">
       <c r="A23" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B23" s="14">
         <v>6</v>
@@ -3898,40 +3839,40 @@
       <c r="C23" s="16">
         <v>34</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="66" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="93" t="s">
-        <v>256</v>
+        <v>235</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="82" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3944,29 +3885,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G2" sqref="E2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="91" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="80" customWidth="1"/>
     <col min="2" max="2" width="11" style="16" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="77.85546875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" style="15" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="16" customWidth="1"/>
     <col min="8" max="8" width="47.42578125" style="22" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:10" ht="48" thickBot="1">
+      <c r="A1" s="78" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -3990,45 +3930,45 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="87" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="141.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
-        <v>172</v>
+    <row r="2" spans="1:10" ht="141.75" customHeight="1" thickBot="1">
+      <c r="A2" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>257</v>
+        <v>135</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="111" customHeight="1">
+      <c r="A3" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B3" s="16">
         <v>3</v>
@@ -4037,91 +3977,91 @@
         <v>9</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>256</v>
+        <v>137</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>204</v>
       </c>
       <c r="J3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="127.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="127.5" customHeight="1">
+      <c r="A4" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>145</v>
+        <v>112</v>
+      </c>
+      <c r="F4" s="15">
+        <v>28</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>255</v>
+        <v>139</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="111" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
-        <v>172</v>
+        <v>241</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A6" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
@@ -4130,27 +4070,27 @@
         <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="94.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
-        <v>172</v>
+        <v>115</v>
+      </c>
+      <c r="F6" s="15">
+        <v>40</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="129" customFormat="1" ht="94.5" customHeight="1" thickBot="1">
+      <c r="A7" s="80" t="s">
+        <v>133</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -4158,28 +4098,28 @@
       <c r="C7" s="16">
         <v>32</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="I7" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
-        <v>172</v>
+      <c r="D7" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="75">
+        <v>12</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="127" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="92.25" customHeight="1" thickBot="1">
+      <c r="A8" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B8" s="16">
         <v>6</v>
@@ -4188,27 +4128,27 @@
         <v>32</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>155</v>
+        <v>118</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
-        <v>172</v>
+        <v>145</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A9" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B9" s="16">
         <v>6</v>
@@ -4217,27 +4157,27 @@
         <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>154</v>
+        <v>121</v>
+      </c>
+      <c r="F9" s="15">
+        <v>12</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
-        <v>172</v>
+        <v>147</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A10" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="16">
         <v>6</v>
@@ -4246,27 +4186,27 @@
         <v>32</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>162</v>
+        <v>123</v>
+      </c>
+      <c r="F10" s="15">
+        <v>34</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="79.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
-        <v>172</v>
+        <v>150</v>
+      </c>
+      <c r="I10" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A11" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B11" s="16">
         <v>6</v>
@@ -4275,27 +4215,27 @@
         <v>32</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>163</v>
+        <v>125</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="93" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A12" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B12" s="16">
         <v>6</v>
@@ -4304,27 +4244,27 @@
         <v>32</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="15">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I12" s="94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="78.75" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="90" t="s">
-        <v>172</v>
+      <c r="I12" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="78.75">
+      <c r="A13" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B13" s="16">
         <v>7</v>
@@ -4333,27 +4273,27 @@
         <v>36</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="90" t="s">
-        <v>172</v>
+        <v>155</v>
+      </c>
+      <c r="I13" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="69" customHeight="1">
+      <c r="A14" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B14" s="16">
         <v>7</v>
@@ -4362,27 +4302,27 @@
         <v>36</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>281</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="I14" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="78.75" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="90" t="s">
-        <v>172</v>
+        <v>156</v>
+      </c>
+      <c r="I14" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A15" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B15" s="16">
         <v>7</v>
@@ -4391,27 +4331,27 @@
         <v>36</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>104</v>
+        <v>162</v>
+      </c>
+      <c r="F15" s="15">
+        <v>40</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="90" t="s">
-        <v>172</v>
+        <v>158</v>
+      </c>
+      <c r="I15" s="94" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="90.75" thickBot="1">
+      <c r="A16" s="79" t="s">
+        <v>133</v>
       </c>
       <c r="B16" s="16">
         <v>7</v>
@@ -4420,32 +4360,25 @@
         <v>37</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>171</v>
+        <v>132</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>282</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="I16" s="105" t="s">
-        <v>272</v>
+        <v>160</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J16">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="R167P9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
